--- a/wash_P/SKN.xlsx
+++ b/wash_P/SKN.xlsx
@@ -87207,7 +87207,7 @@
         <v>0</v>
       </c>
       <c r="CB28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC28" t="n">
         <v>0</v>
@@ -87222,7 +87222,7 @@
         <v>0</v>
       </c>
       <c r="CG28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH28" t="n">
         <v>0</v>
@@ -87249,7 +87249,7 @@
         <v>0</v>
       </c>
       <c r="CP28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ28" t="n">
         <v>0</v>
@@ -90335,7 +90335,7 @@
         <v>0</v>
       </c>
       <c r="CB29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC29" t="n">
         <v>0</v>
@@ -90350,7 +90350,7 @@
         <v>0</v>
       </c>
       <c r="CG29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH29" t="n">
         <v>0</v>
@@ -90377,7 +90377,7 @@
         <v>0</v>
       </c>
       <c r="CP29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ29" t="n">
         <v>0</v>
